--- a/Planeacion del proyecto/PDMaestroDocumentos.xlsx
+++ b/Planeacion del proyecto/PDMaestroDocumentos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/Planeacion del proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D0C245-3E51-EF45-8DDD-8ED3C7F02CE8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C14DE9-0991-3641-BCC4-2F801EFF5FF2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16140" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16100" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="183">
   <si>
     <t>METFOR</t>
   </si>
@@ -566,6 +566,18 @@
   </si>
   <si>
     <t>PD_SUMP_Planeacion</t>
+  </si>
+  <si>
+    <t>Especificación detalla de Tareas</t>
+  </si>
+  <si>
+    <t>PD Especificación Detalla de Tareas</t>
+  </si>
+  <si>
+    <t>SUMQ</t>
+  </si>
+  <si>
+    <t>PL SUMQ Formulario e Instrucciones</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="E94" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3621,9 +3633,15 @@
       <c r="B110" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="21"/>
-      <c r="E110" s="16"/>
+      <c r="C110" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>180</v>
+      </c>
       <c r="F110" s="16">
         <v>1</v>
       </c>
@@ -3638,9 +3656,15 @@
       <c r="B111" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="21"/>
-      <c r="E111" s="16"/>
+      <c r="C111" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>182</v>
+      </c>
       <c r="F111" s="16">
         <v>1</v>
       </c>

--- a/Planeacion del proyecto/PDMaestroDocumentos.xlsx
+++ b/Planeacion del proyecto/PDMaestroDocumentos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carloscruz/Desktop/METFOR/Planeacion del proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C14DE9-0991-3641-BCC4-2F801EFF5FF2}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53288B44-9FE0-1247-BA7F-A807262BA4DA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16100" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="14360" windowHeight="16060" xr2:uid="{74EDF65E-5D9A-48ED-A0AB-4222859313A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="192">
   <si>
     <t>METFOR</t>
   </si>
@@ -578,6 +578,33 @@
   </si>
   <si>
     <t>PL SUMQ Formulario e Instrucciones</t>
+  </si>
+  <si>
+    <t>SUMP</t>
+  </si>
+  <si>
+    <t>PL SUMP Planeación</t>
+  </si>
+  <si>
+    <t>Plan de calidad</t>
+  </si>
+  <si>
+    <t>PL Plan de Calidad</t>
+  </si>
+  <si>
+    <t>PD Log de defectos</t>
+  </si>
+  <si>
+    <t>Log de defectos</t>
+  </si>
+  <si>
+    <t>CheckList</t>
+  </si>
+  <si>
+    <t>PD CheckList</t>
+  </si>
+  <si>
+    <t>PD Plan de Calidad</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B82D4-C3C9-463B-A7F7-479A47609B7D}">
   <dimension ref="B2:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E94" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="D92" zoomScale="133" zoomScaleNormal="135" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3679,9 +3706,15 @@
       <c r="B112" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="21"/>
-      <c r="E112" s="16"/>
+      <c r="C112" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="F112" s="16">
         <v>1</v>
       </c>
@@ -3696,9 +3729,15 @@
       <c r="B113" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="16"/>
+      <c r="C113" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="F113" s="16">
         <v>1</v>
       </c>
@@ -3713,9 +3752,15 @@
       <c r="B114" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="16"/>
+      <c r="C114" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>187</v>
+      </c>
       <c r="F114" s="16">
         <v>1</v>
       </c>
@@ -3730,9 +3775,15 @@
       <c r="B115" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="16"/>
+      <c r="C115" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>190</v>
+      </c>
       <c r="F115" s="16">
         <v>1</v>
       </c>
@@ -3747,9 +3798,15 @@
       <c r="B116" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="21"/>
-      <c r="E116" s="16"/>
+      <c r="C116" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>191</v>
+      </c>
       <c r="F116" s="16">
         <v>1</v>
       </c>
